--- a/public/uon_facilities.xlsx
+++ b/public/uon_facilities.xlsx
@@ -20,30 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t xml:space="preserve">MFL Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabare H/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiamutugu H/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baricho H/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kangu Dispensary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difathus H/C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.C.K Mt. Kenya Hospital</t>
   </si>
 </sst>
 </file>
@@ -144,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -163,56 +142,101 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>10388</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
+        <v>11104</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>10545</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>10591</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>10049</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>10655</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>10471</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>11141</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>10110</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>10831</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>10738</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>10269</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>10263</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>10058</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>10438</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>18608</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>18432</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10765</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>10869</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>10774</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>10349</v>
       </c>
     </row>
   </sheetData>
